--- a/CacheAnalysis.xlsx
+++ b/CacheAnalysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>ISIZE</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>BS 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cc.trace</t>
   </si>
 </sst>
 </file>
@@ -1923,16 +1929,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>86.363600000000005</c:v>
+                  <c:v>90.709299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.974000000000004</c:v>
+                  <c:v>93.387900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.363600000000005</c:v>
+                  <c:v>90.709299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.974000000000004</c:v>
+                  <c:v>93.387900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,6 +2141,901 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1199286335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hit Rate vs Associativity (Log Scale) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IHIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>97.373199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.715599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.911199999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.910700000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.983099999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.010800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5195-4191-9BB3-7C500A1A6003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.845699999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.198400000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.0197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.368300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.499799999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.5608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.549700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5195-4191-9BB3-7C500A1A6003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1355966560"/>
+        <c:axId val="1355332304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1355966560"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1355332304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1355332304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1355966560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hit Rate vs Write Policy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>cc.trace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$39:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WT,NWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WT,WA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WB,NWA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WB,WA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90.709299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.387900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.709299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.387900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5680-4AD8-AAE6-E85DF70C983E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>spice.trace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$39:$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WT,NWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WT,WA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WB,NWA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WB,WA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$39:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97.370099999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.051900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.370099999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.051900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5680-4AD8-AAE6-E85DF70C983E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1359480400"/>
+        <c:axId val="1153933728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1359480400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153933728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1153933728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359480400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,6 +3275,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4085,6 +5066,1025 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4579,6 +6579,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A36659-954D-42E3-8585-425156A97A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5356A1-F125-484A-B113-6633069C841B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4886,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,10 +7481,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>99.9422</v>
+        <v>97.373199999999997</v>
       </c>
       <c r="E29">
-        <v>99.5779</v>
+        <v>93.845699999999994</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5423,10 +7498,10 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>99.9422</v>
+        <v>97.715599999999995</v>
       </c>
       <c r="E30">
-        <v>99.5779</v>
+        <v>96.198400000000007</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5437,10 +7512,10 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>99.9422</v>
+        <v>97.911199999999994</v>
       </c>
       <c r="E31">
-        <v>99.5779</v>
+        <v>97.0197</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5451,46 +7526,49 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>99.9422</v>
+        <v>97.910700000000006</v>
       </c>
       <c r="E32">
-        <v>99.5779</v>
+        <v>97.368300000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>16</v>
       </c>
       <c r="D33">
-        <v>99.9422</v>
+        <v>97.983099999999993</v>
       </c>
       <c r="E33">
-        <v>99.5779</v>
+        <v>97.499799999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34">
-        <v>99.9422</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="E34">
-        <v>99.5779</v>
+        <v>97.5608</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>64</v>
       </c>
       <c r="D35">
-        <v>99.9422</v>
+        <v>98.010800000000003</v>
       </c>
       <c r="E35">
-        <v>99.5779</v>
+        <v>97.549700000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5504,51 +7582,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39">
-        <v>86.363600000000005</v>
+        <v>90.709299999999999</v>
       </c>
       <c r="E39">
         <v>97.370099999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40">
-        <v>85.974000000000004</v>
+        <v>93.387900000000002</v>
       </c>
       <c r="E40">
         <v>98.051900000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41">
-        <v>86.363600000000005</v>
+        <v>90.709299999999999</v>
       </c>
       <c r="E41">
         <v>97.370099999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42">
-        <v>85.974000000000004</v>
+        <v>93.387900000000002</v>
       </c>
       <c r="E42">
         <v>98.051900000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>23</v>
       </c>
@@ -5556,7 +7634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>21</v>
       </c>
@@ -5564,7 +7642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>22</v>
       </c>
@@ -5572,7 +7650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>12</v>
       </c>
